--- a/sample/output-97-2007.xlsx
+++ b/sample/output-97-2007.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30480" windowHeight="24220"/>
+    <workbookView windowWidth="30480" windowHeight="24220" activeTab="0"/>
   </bookViews>
   <sheets>
+    <sheet name="copied_sheet" r:id="rId5" sheetId="2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet0" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>基本信息</t>
   </si>
@@ -77,10 +77,175 @@
     <t>求和</t>
   </si>
   <si>
-    <t>旧文档</t>
-  </si>
-  <si>
-    <t>平均数</t>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旧</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>档</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="53"/>
+        <sz val="11.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="53"/>
+        <sz val="11.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="53"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="10"/>
+        <sz val="22.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <t>Cell</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="none"/>
+        <color indexed="8"/>
+        <sz val="12.0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -93,7 +258,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +491,20 @@
     </font>
     <font>
       <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <color indexed="53"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="53"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <sz val="11.0"/>
       <u val="none"/>
       <color indexed="8"/>
@@ -345,6 +524,111 @@
       <b val="true"/>
       <u val="none"/>
       <color indexed="54"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="16"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="9"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color indexed="23"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="17"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="20"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="15.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="54"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="19"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="54"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="8"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="10"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="53"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="63"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <u val="none"/>
+      <color indexed="62"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="9"/>
       <charset val="134"/>
     </font>
     <font>
@@ -358,105 +642,14 @@
       <name val="宋体"/>
       <sz val="11.0"/>
       <u val="none"/>
-      <color indexed="9"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="15.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="54"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="18.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="54"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="none"/>
       <color indexed="53"/>
       <charset val="134"/>
     </font>
     <font>
       <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="20"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <u val="none"/>
-      <color indexed="23"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="8"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="63"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="9"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <color indexed="16"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <color indexed="17"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="53"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
+      <sz val="22.0"/>
       <u val="none"/>
       <color indexed="10"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <color indexed="62"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -987,7 +1180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,6 +1213,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="general" vertical="center" wrapText="false"/>
@@ -1669,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1742,126 +1938,129 @@
       <c r="B13" s="22" t="n">
         <v>12.0</v>
       </c>
+      <c r="G13" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="23" t="n">
+      <c r="B14" s="24" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="24" t="n">
+      <c r="B15" s="25" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="26" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="26" t="n">
+      <c r="B17" s="27" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="27" t="n">
+      <c r="B18" s="28" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="28" t="n">
+      <c r="B19" s="29" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="29" t="n">
+      <c r="B20" s="30" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="30" t="n">
+      <c r="B21" s="31" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="31" t="n">
+      <c r="B22" s="32" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="32" t="n">
+      <c r="B23" s="33" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="33" t="n">
+      <c r="B24" s="34" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="34" t="n">
+      <c r="B25" s="35" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="35" t="n">
+      <c r="B26" s="36" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="36" t="n">
+      <c r="B27" s="37" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="37" t="n">
+      <c r="B28" s="38" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="38" t="n">
+      <c r="B29" s="39" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="39" t="n">
+      <c r="B30" s="40" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="40" t="n">
+      <c r="B31" s="41" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="41" t="n">
+      <c r="B32" s="42" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="42" t="n">
+      <c r="B33" s="43" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="43" t="n">
+      <c r="B34" s="44" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="45" t="n">
+      <c r="A35" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="46" t="n">
         <f>SUM(B2:B34)</f>
         <v>561.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="47" t="n">
+      <c r="A36" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="48" t="n">
         <f>AVERAGE(B2:B34)</f>
         <v>17.0</v>
       </c>

--- a/sample/output-97-2007.xlsx
+++ b/sample/output-97-2007.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
   <si>
     <t>基本信息</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>董莉颖</t>
+  </si>
+  <si>
+    <r>
+      <t>多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文字</t>
+    </r>
   </si>
   <si>
     <t>余雨彤</t>
@@ -258,7 +279,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="93">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,6 +332,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -326,13 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -341,6 +362,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -350,30 +455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,64 +469,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,6 +680,279 @@
       <color indexed="10"/>
       <charset val="134"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="FF6600"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="12.0"/>
+      <u val="none"/>
+      <charset val="134"/>
+      <color rgb="000000"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -662,187 +963,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,11 +1195,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262" rgb="5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" rgb="5B9BD5"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,62 +1280,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" rgb="5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" rgb="5B9BD5"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,152 +1336,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,12 +1491,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1211,121 +1506,121 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="55" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="37" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="general" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="35" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="general" vertical="center" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -1647,13 +1942,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" style="1" width="9.14285714285714"/>
     <col min="7" max="7" customWidth="true" width="15.625"/>
@@ -1663,20 +1958,20 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1684,7 +1979,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -1695,7 +1990,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -1706,7 +2001,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -1717,7 +2012,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -1728,7 +2023,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -1739,7 +2034,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -1750,7 +2045,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -1761,7 +2056,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -1772,7 +2067,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C11">
@@ -1783,30 +2078,33 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="18" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13">
         <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C14">
         <v>33</v>
@@ -1816,8 +2114,8 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C15">
         <v>27</v>
@@ -1827,8 +2125,8 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1838,8 +2136,8 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C17">
         <v>28</v>
@@ -1847,7 +2145,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <f>SUM(C3:C17)</f>
@@ -1870,197 +2168,204 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+    <col min="7" max="7" width="21.5" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
+    <row r="1" ht="17.6" customHeight="true">
+      <c r="A1" t="s" s="8">
+        <v>21</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2">
-      <c r="B2" s="11" t="n">
+    <row r="2" ht="17.6" customHeight="true">
+      <c r="B2" t="n" s="9">
         <v>1.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="12" t="n">
+    <row r="3" ht="17.6" customHeight="true">
+      <c r="B3" t="n" s="10">
         <v>2.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="13" t="n">
+    <row r="4" ht="17.6" customHeight="true">
+      <c r="B4" t="n" s="11">
         <v>3.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="14" t="n">
+    <row r="5" ht="17.6" customHeight="true">
+      <c r="B5" t="n" s="12">
         <v>4.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="15" t="n">
+    <row r="6" ht="17.6" customHeight="true">
+      <c r="B6" t="n" s="13">
         <v>5.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="16" t="n">
+    <row r="7" ht="17.6" customHeight="true">
+      <c r="B7" t="n" s="14">
         <v>6.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="17" t="n">
+    <row r="8" ht="17.6" customHeight="true">
+      <c r="B8" t="n" s="15">
         <v>7.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="18" t="n">
+    <row r="9" ht="17.6" customHeight="true">
+      <c r="B9" t="n" s="16">
         <v>8.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="19" t="n">
+    <row r="10" ht="17.6" customHeight="true">
+      <c r="B10" t="n" s="17">
         <v>9.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="20" t="n">
+    <row r="11" ht="17.6" customHeight="true">
+      <c r="B11" t="n" s="18">
         <v>10.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="21" t="n">
+    <row r="12" ht="17.6" customHeight="true">
+      <c r="B12" t="n" s="19">
         <v>11.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="22" t="n">
+    <row r="13" ht="32.0" customHeight="true">
+      <c r="B13" t="n" s="20">
         <v>12.0</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="24" t="n">
+      <c r="G13" t="s" s="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" customHeight="true">
+      <c r="B14" t="n" s="22">
         <v>13.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="25" t="n">
+    <row r="15" ht="17.6" customHeight="true">
+      <c r="B15" t="n" s="23">
         <v>14.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="26" t="n">
+    <row r="16" ht="17.6" customHeight="true">
+      <c r="B16" t="n" s="24">
         <v>15.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="27" t="n">
+    <row r="17" ht="17.6" customHeight="true">
+      <c r="B17" t="n" s="25">
         <v>16.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="28" t="n">
+    <row r="18" ht="17.6" customHeight="true">
+      <c r="B18" t="n" s="26">
         <v>17.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="29" t="n">
+    <row r="19" ht="17.6" customHeight="true">
+      <c r="B19" t="n" s="27">
         <v>18.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="30" t="n">
+    <row r="20" ht="17.6" customHeight="true">
+      <c r="B20" t="n" s="28">
         <v>19.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="31" t="n">
+    <row r="21" ht="17.6" customHeight="true">
+      <c r="B21" t="n" s="29">
         <v>20.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="32" t="n">
+    <row r="22" ht="17.6" customHeight="true">
+      <c r="B22" t="n" s="30">
         <v>21.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="33" t="n">
+    <row r="23" ht="17.6" customHeight="true">
+      <c r="B23" t="n" s="31">
         <v>22.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="34" t="n">
+    <row r="24" ht="17.6" customHeight="true">
+      <c r="B24" t="n" s="32">
         <v>23.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="35" t="n">
+    <row r="25" ht="17.6" customHeight="true">
+      <c r="B25" t="n" s="33">
         <v>24.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="36" t="n">
+    <row r="26" ht="17.6" customHeight="true">
+      <c r="B26" t="n" s="34">
         <v>25.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="37" t="n">
+    <row r="27" ht="17.6" customHeight="true">
+      <c r="B27" t="n" s="35">
         <v>26.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="38" t="n">
+    <row r="28" ht="17.6" customHeight="true">
+      <c r="B28" t="n" s="36">
         <v>27.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="39" t="n">
+    <row r="29" ht="17.6" customHeight="true">
+      <c r="B29" t="n" s="37">
         <v>28.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="40" t="n">
+    <row r="30" ht="17.6" customHeight="true">
+      <c r="B30" t="n" s="38">
         <v>29.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="41" t="n">
+    <row r="31" ht="17.6" customHeight="true">
+      <c r="B31" t="n" s="39">
         <v>30.0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="42" t="n">
+    <row r="32" ht="17.6" customHeight="true">
+      <c r="B32" t="n" s="40">
         <v>31.0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="43" t="n">
+    <row r="33" ht="17.6" customHeight="true">
+      <c r="B33" t="n" s="41">
         <v>32.0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="44" t="n">
+    <row r="34" ht="17.6" customHeight="true">
+      <c r="B34" t="n" s="42">
         <v>33.0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="46" t="n">
+    <row r="35" ht="17.6" customHeight="true">
+      <c r="A35" t="s" s="43">
+        <v>23</v>
+      </c>
+      <c r="B35" s="44" t="n">
         <f>SUM(B2:B34)</f>
         <v>561.0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="48" t="n">
+    <row r="36" ht="17.6" customHeight="true">
+      <c r="A36" t="s" s="45">
+        <v>24</v>
+      </c>
+      <c r="B36" s="46" t="n">
         <f>AVERAGE(B2:B34)</f>
         <v>17.0</v>
       </c>
